--- a/Assignment 3/Criminal_Risk_Assessment_Request_ODK_FIXED.xlsx
+++ b/Assignment 3/Criminal_Risk_Assessment_Request_ODK_FIXED.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krishnan/Desktop/Diona Assignment/Assignment 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{252FE4A5-67C6-0742-9AB3-DAF60DBB87FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C4017B-620E-D644-8952-797B0669F2F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -583,7 +582,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -604,10 +603,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -917,10 +912,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -966,7 +961,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
@@ -1891,24 +1886,24 @@
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
     </row>
-    <row r="43" spans="1:12" s="9" customFormat="1" ht="68" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="68" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1919,658 +1914,658 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" customWidth="1"/>
+    <col min="3" max="3" width="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.4">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:11" s="8" customFormat="1" ht="34" x14ac:dyDescent="0.4">
+      <c r="A1" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="12"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2581,596 +2576,597 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30.6640625" customWidth="1"/>
     <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="4" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.5" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
     <col min="5" max="5" width="40.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.4">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:11" s="8" customFormat="1" ht="34" x14ac:dyDescent="0.4">
+      <c r="A1" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+    </row>
+    <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="12"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
